--- a/bioSample/bioSample_2905.xlsx
+++ b/bioSample/bioSample_2905.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">bioSampleNumber </t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>

--- a/bioSample/bioSample_2905.xlsx
+++ b/bioSample/bioSample_2905.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="78">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t xml:space="preserve">CNAG_04352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G418</t>
   </si>
   <si>
     <t xml:space="preserve">TDY2156</t>
@@ -271,6 +268,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -355,7 +353,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -363,9 +361,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.07"/>
@@ -814,7 +812,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,10 +829,10 @@
         <v>12</v>
       </c>
       <c r="E15" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>43</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>15</v>
@@ -863,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="E16" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>45</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>15</v>
@@ -895,10 +893,10 @@
         <v>12</v>
       </c>
       <c r="E17" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>47</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>15</v>
@@ -927,10 +925,10 @@
         <v>12</v>
       </c>
       <c r="E18" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>49</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>15</v>
@@ -959,10 +957,10 @@
         <v>12</v>
       </c>
       <c r="E19" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>15</v>
@@ -991,10 +989,10 @@
         <v>12</v>
       </c>
       <c r="E20" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>53</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>15</v>
@@ -1023,10 +1021,10 @@
         <v>12</v>
       </c>
       <c r="E21" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>55</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>15</v>
@@ -1055,10 +1053,10 @@
         <v>12</v>
       </c>
       <c r="E22" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>15</v>
@@ -1087,10 +1085,10 @@
         <v>12</v>
       </c>
       <c r="E23" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>59</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>15</v>
@@ -1119,10 +1117,10 @@
         <v>12</v>
       </c>
       <c r="E24" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>15</v>
@@ -1139,7 +1137,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>11</v>
@@ -1168,7 +1166,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>11</v>
@@ -1180,10 +1178,10 @@
         <v>12</v>
       </c>
       <c r="E26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>15</v>
@@ -1200,7 +1198,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>11</v>
@@ -1212,10 +1210,10 @@
         <v>12</v>
       </c>
       <c r="E27" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>64</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>15</v>
@@ -1229,7 +1227,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>11</v>
@@ -1241,10 +1239,10 @@
         <v>12</v>
       </c>
       <c r="E28" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>66</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>15</v>
@@ -1258,7 +1256,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>11</v>
@@ -1270,10 +1268,10 @@
         <v>12</v>
       </c>
       <c r="E29" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>59</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>15</v>
@@ -1290,7 +1288,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>11</v>
@@ -1302,10 +1300,10 @@
         <v>12</v>
       </c>
       <c r="E30" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>68</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>15</v>
@@ -1319,7 +1317,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>11</v>
@@ -1331,10 +1329,10 @@
         <v>12</v>
       </c>
       <c r="E31" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="0" t="s">
         <v>69</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>70</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>15</v>
@@ -1351,7 +1349,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>11</v>
@@ -1363,10 +1361,10 @@
         <v>12</v>
       </c>
       <c r="E32" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="0" t="s">
         <v>71</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>72</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>15</v>
@@ -1380,7 +1378,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>11</v>
@@ -1392,10 +1390,10 @@
         <v>12</v>
       </c>
       <c r="E33" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>74</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>15</v>
@@ -1409,7 +1407,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>11</v>
@@ -1421,10 +1419,10 @@
         <v>12</v>
       </c>
       <c r="E34" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>76</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>15</v>
@@ -1441,7 +1439,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>11</v>
@@ -1453,10 +1451,10 @@
         <v>12</v>
       </c>
       <c r="E35" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>78</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>15</v>

--- a/bioSample/bioSample_2905.xlsx
+++ b/bioSample/bioSample_2905.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="78">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -353,7 +353,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:1048576 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1224,6 +1224,9 @@
       <c r="I27" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="J27" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -1252,6 +1255,9 @@
       </c>
       <c r="I28" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/bioSample/bioSample_2905.xlsx
+++ b/bioSample/bioSample_2905.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="78">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -70,6 +70,9 @@
     <t xml:space="preserve">37C.CO2</t>
   </si>
   <si>
+    <t xml:space="preserve">05.18.18</t>
+  </si>
+  <si>
     <t xml:space="preserve">TDY2101</t>
   </si>
   <si>
@@ -85,6 +88,12 @@
     <t xml:space="preserve">CNAG_02066</t>
   </si>
   <si>
+    <t xml:space="preserve">TDY2262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_02305</t>
+  </si>
+  <si>
     <t xml:space="preserve">TDY2103</t>
   </si>
   <si>
@@ -163,6 +172,12 @@
     <t xml:space="preserve">CNAG_04588</t>
   </si>
   <si>
+    <t xml:space="preserve">TDY2264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_04841</t>
+  </si>
+  <si>
     <t xml:space="preserve">TDY2165</t>
   </si>
   <si>
@@ -193,19 +208,40 @@
     <t xml:space="preserve">CNAG_05375</t>
   </si>
   <si>
+    <t xml:space="preserve">TDY2192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_05538</t>
+  </si>
+  <si>
     <t xml:space="preserve">TDY2173</t>
   </si>
   <si>
     <t xml:space="preserve">CNAG_05785</t>
   </si>
   <si>
+    <t xml:space="preserve">TDY2273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_06168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDY2189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_06188</t>
+  </si>
+  <si>
     <t xml:space="preserve">TDY2184</t>
   </si>
   <si>
     <t xml:space="preserve">CNAG_06751</t>
   </si>
   <si>
-    <t xml:space="preserve">05.18.18</t>
+    <t xml:space="preserve">TDY2205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_06871</t>
   </si>
   <si>
     <t xml:space="preserve">TDY2201</t>
@@ -218,42 +254,6 @@
   </si>
   <si>
     <t xml:space="preserve">CNAG_07901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_02305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_04841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_05538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_06168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_06188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_06871</t>
   </si>
 </sst>
 </file>
@@ -352,8 +352,8 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:1048576 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J29" activeCellId="0" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -433,22 +433,22 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>15</v>
@@ -457,10 +457,7 @@
         <v>90</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -471,16 +468,16 @@
         <v>11</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>15</v>
@@ -492,7 +489,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -503,17 +500,17 @@
         <v>11</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="G5" s="0" t="s">
         <v>15</v>
       </c>
@@ -524,28 +521,28 @@
         <v>5</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="G6" s="0" t="s">
         <v>15</v>
       </c>
@@ -556,7 +553,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -567,17 +564,17 @@
         <v>11</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="G7" s="0" t="s">
         <v>15</v>
       </c>
@@ -588,7 +585,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -599,17 +596,17 @@
         <v>11</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="G8" s="0" t="s">
         <v>15</v>
       </c>
@@ -620,7 +617,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -631,17 +628,17 @@
         <v>11</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="G9" s="0" t="s">
         <v>15</v>
       </c>
@@ -652,7 +649,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -663,17 +660,17 @@
         <v>11</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="G10" s="0" t="s">
         <v>15</v>
       </c>
@@ -684,7 +681,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -695,17 +692,17 @@
         <v>11</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="G11" s="0" t="s">
         <v>15</v>
       </c>
@@ -716,7 +713,7 @@
         <v>5</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -727,17 +724,17 @@
         <v>11</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="G12" s="0" t="s">
         <v>15</v>
       </c>
@@ -748,7 +745,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -759,17 +756,17 @@
         <v>11</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="G13" s="0" t="s">
         <v>15</v>
       </c>
@@ -780,7 +777,7 @@
         <v>5</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -791,17 +788,17 @@
         <v>11</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="G14" s="0" t="s">
         <v>15</v>
       </c>
@@ -812,7 +809,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -823,17 +820,17 @@
         <v>11</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="G15" s="0" t="s">
         <v>15</v>
       </c>
@@ -844,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -855,17 +852,17 @@
         <v>11</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="G16" s="0" t="s">
         <v>15</v>
       </c>
@@ -876,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -887,17 +884,17 @@
         <v>11</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="G17" s="0" t="s">
         <v>15</v>
       </c>
@@ -908,7 +905,7 @@
         <v>5</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -919,17 +916,17 @@
         <v>11</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="G18" s="0" t="s">
         <v>15</v>
       </c>
@@ -940,7 +937,7 @@
         <v>5</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -951,17 +948,17 @@
         <v>11</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="G19" s="0" t="s">
         <v>15</v>
       </c>
@@ -972,28 +969,28 @@
         <v>5</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="G20" s="0" t="s">
         <v>15</v>
       </c>
@@ -1001,10 +998,10 @@
         <v>90</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1015,17 +1012,17 @@
         <v>11</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="G21" s="0" t="s">
         <v>15</v>
       </c>
@@ -1036,7 +1033,7 @@
         <v>5</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1047,17 +1044,17 @@
         <v>11</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="G22" s="0" t="s">
         <v>15</v>
       </c>
@@ -1068,7 +1065,7 @@
         <v>5</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1079,17 +1076,17 @@
         <v>11</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="G23" s="0" t="s">
         <v>15</v>
       </c>
@@ -1100,7 +1097,7 @@
         <v>5</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1111,17 +1108,17 @@
         <v>11</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="G24" s="0" t="s">
         <v>15</v>
       </c>
@@ -1132,28 +1129,28 @@
         <v>5</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="G25" s="0" t="s">
         <v>15</v>
       </c>
@@ -1161,27 +1158,30 @@
         <v>90</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>15</v>
@@ -1190,30 +1190,30 @@
         <v>90</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>15</v>
@@ -1225,18 +1225,18 @@
         <v>5</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>12</v>
@@ -1254,30 +1254,30 @@
         <v>90</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>15</v>
@@ -1286,30 +1286,27 @@
         <v>90</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>15</v>
@@ -1318,27 +1315,30 @@
         <v>90</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>15</v>
@@ -1347,21 +1347,21 @@
         <v>90</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>12</v>
@@ -1379,18 +1379,21 @@
         <v>90</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>12</v>
@@ -1408,18 +1411,21 @@
         <v>90</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>12</v>
@@ -1437,21 +1443,21 @@
         <v>90</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>12</v>
@@ -1470,6 +1476,9 @@
       </c>
       <c r="I35" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
